--- a/admin/PROVIDER_CASH_REPORT.xlsx
+++ b/admin/PROVIDER_CASH_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>PROVIDER CASH REPORT</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Amto.Robert (Arthur Murray Thousand Oaks)</t>
   </si>
   <si>
-    <t>10/01/2025 - 10/10/2025</t>
-  </si>
-  <si>
-    <t>Emily Story</t>
+    <t>05/01/2025 - 10/11/2025</t>
+  </si>
+  <si>
+    <t>Nicholas Kavoklis</t>
   </si>
   <si>
     <t>Receipt#</t>
@@ -65,130 +65,46 @@
     <t>Comment/Remark</t>
   </si>
   <si>
-    <t>PMT-14641</t>
-  </si>
-  <si>
-    <t>10-07-2025</t>
-  </si>
-  <si>
-    <t>$180.00</t>
-  </si>
-  <si>
-    <t>Roger Dewames</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>ENR - 5</t>
-  </si>
-  <si>
-    <t>Custom Renewal - ENR - 5</t>
+    <t>RC-14198</t>
+  </si>
+  <si>
+    <t>09-24-2025</t>
+  </si>
+  <si>
+    <t>$2500.00</t>
+  </si>
+  <si>
+    <t>Aar Bagnall</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 11</t>
+  </si>
+  <si>
+    <t>NEW -  - 11</t>
   </si>
   <si>
     <t>Renewal</t>
   </si>
   <si>
-    <t>40/$6804.00</t>
+    <t>0/$2500.00</t>
+  </si>
+  <si>
+    <t>$2,500.00</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PMT-14642</t>
-  </si>
-  <si>
-    <t>$500.40</t>
-  </si>
-  <si>
-    <t>PMT-14643</t>
-  </si>
-  <si>
-    <t>$300.00</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>PMT-14644</t>
-  </si>
-  <si>
-    <t>$380.40</t>
-  </si>
-  <si>
-    <t>PMT-14640</t>
-  </si>
-  <si>
-    <t>10-03-2025</t>
-  </si>
-  <si>
-    <t>$540.00</t>
-  </si>
-  <si>
-    <t>Aaron Donely</t>
-  </si>
-  <si>
-    <t>ENR - 1</t>
-  </si>
-  <si>
-    <t>Pre original</t>
-  </si>
-  <si>
-    <t>3/$540.00</t>
-  </si>
-  <si>
-    <t>$270.00</t>
-  </si>
-  <si>
-    <t>$1,630.80</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez</t>
-  </si>
-  <si>
-    <t>PMT-14645</t>
-  </si>
-  <si>
-    <t>10-08-2025</t>
-  </si>
-  <si>
-    <t>$150.00</t>
-  </si>
-  <si>
-    <t>Aar Bagnall</t>
-  </si>
-  <si>
-    <t>ENR - 6</t>
-  </si>
-  <si>
-    <t>Testing Pay - ENR - 6</t>
-  </si>
-  <si>
-    <t>5/$750.00</t>
-  </si>
-  <si>
-    <t>$75.00</t>
-  </si>
-  <si>
-    <t>PMT-14646</t>
-  </si>
-  <si>
-    <t>PMT-14637</t>
-  </si>
-  <si>
-    <t>10-02-2025</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>PMT-14638</t>
-  </si>
-  <si>
-    <t>PMT-14639</t>
-  </si>
-  <si>
-    <t>Wallet</t>
+    <t>RC-14197</t>
+  </si>
+  <si>
+    <t>09-02-2025</t>
+  </si>
+  <si>
+    <t>$0.00</t>
   </si>
 </sst>
 </file>
@@ -296,20 +212,20 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,480 +664,68 @@
         <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2">
+        <v>25</v>
+      </c>
+      <c r="K7" s="9">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
+      <c r="L7" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
+      <c r="J8" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2">
-        <v>100</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="2">
-        <v>50</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="11">
-        <v>50</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="2">
-        <v>50</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="2">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="11">
-        <v>50</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="2">
-        <v>50</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1230,7 +734,6 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
